--- a/Lab04/Lab04.xlsx
+++ b/Lab04/Lab04.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20396"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{203FE137-6D42-402F-91B2-199AC926FA0A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11882DD5-BD74-4637-8FAF-D4C0282294DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,36 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>рекурсия</t>
   </si>
   <si>
     <t>дин. пр.</t>
-  </si>
-  <si>
-    <t>длина</t>
-  </si>
-  <si>
-    <t>0,04</t>
-  </si>
-  <si>
-    <t>0,05</t>
-  </si>
-  <si>
-    <t>0,1</t>
-  </si>
-  <si>
-    <t>0,0625</t>
-  </si>
-  <si>
-    <t>0,2</t>
-  </si>
-  <si>
-    <t>0,5</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -114,18 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
@@ -250,10 +220,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:f>Лист1!$A$2:$A$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -261,19 +231,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>257</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1471</c:v>
+                  <c:v>101280</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -370,10 +331,10 @@
           </c:dLbls>
           <c:val>
             <c:numRef>
-              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:f>Лист1!$B$2:$B$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -384,15 +345,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1236,15 +1188,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>15240</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>3810</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1536,100 +1488,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="2">
         <v>0</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>3</v>
-      </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>0</v>
       </c>
       <c r="B3" s="2">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="B4" s="2">
         <v>0</v>
       </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
-        <v>7</v>
+        <v>101280</v>
       </c>
       <c r="B5" s="2">
         <v>0</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
-        <v>51</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>257</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>1471</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
